--- a/padam_excel/TS 1.1 Padam Input Template.xlsx
+++ b/padam_excel/TS 1.1 Padam Input Template.xlsx
@@ -4020,9 +4020,9 @@
   <dimension ref="A1:AD1581"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R398" sqref="R398"/>
+      <selection pane="bottomLeft" activeCell="M269" sqref="M269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/padam_excel/TS 1.1 Padam Input Template.xlsx
+++ b/padam_excel/TS 1.1 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="1166">
   <si>
     <t>PS</t>
   </si>
@@ -3473,9 +3473,6 @@
     <t>SE,RE</t>
   </si>
   <si>
-    <t>SE,NNE</t>
-  </si>
-  <si>
     <t>NE,RE</t>
   </si>
   <si>
@@ -3513,6 +3510,21 @@
   </si>
   <si>
     <t>some#na |</t>
+  </si>
+  <si>
+    <t>E.SE</t>
+  </si>
+  <si>
+    <t>RE,SE</t>
+  </si>
+  <si>
+    <t>RE?</t>
+  </si>
+  <si>
+    <t>NGM</t>
+  </si>
+  <si>
+    <t>SE?</t>
   </si>
 </sst>
 </file>
@@ -4020,9 +4032,9 @@
   <dimension ref="A1:AD1581"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A953" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="M269" sqref="M269"/>
+      <selection pane="bottomLeft" activeCell="H960" sqref="H960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8189,7 +8201,7 @@
       <c r="P81" s="23"/>
       <c r="Q81" s="23"/>
       <c r="R81" s="23" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S81" s="23"/>
       <c r="T81" s="23"/>
@@ -11471,7 +11483,7 @@
       <c r="P164" s="9"/>
       <c r="Q164" s="9"/>
       <c r="R164" s="9" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="S164" s="9"/>
       <c r="T164" s="9"/>
@@ -12218,7 +12230,7 @@
         <v>50</v>
       </c>
       <c r="M183" s="32" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="N183" s="8"/>
       <c r="O183" s="9"/>
@@ -17234,7 +17246,7 @@
       <c r="P311" s="9"/>
       <c r="Q311" s="9"/>
       <c r="R311" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S311" s="9"/>
       <c r="T311" s="9"/>
@@ -20878,7 +20890,7 @@
       <c r="P403" s="9"/>
       <c r="Q403" s="9"/>
       <c r="R403" s="9" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="S403" s="9"/>
       <c r="T403" s="9"/>
@@ -21343,7 +21355,7 @@
       <c r="P415" s="9"/>
       <c r="Q415" s="9"/>
       <c r="R415" s="9" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="S415" s="9"/>
       <c r="T415" s="9"/>
@@ -21497,7 +21509,7 @@
       <c r="P419" s="9"/>
       <c r="Q419" s="9"/>
       <c r="R419" s="9" t="s">
-        <v>1138</v>
+        <v>1161</v>
       </c>
       <c r="S419" s="9"/>
       <c r="T419" s="9"/>
@@ -22193,7 +22205,9 @@
       <c r="O437" s="9"/>
       <c r="P437" s="9"/>
       <c r="Q437" s="9"/>
-      <c r="R437" s="9"/>
+      <c r="R437" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S437" s="9"/>
       <c r="T437" s="9"/>
       <c r="U437" s="9"/>
@@ -22664,7 +22678,9 @@
       <c r="O449" s="9"/>
       <c r="P449" s="9"/>
       <c r="Q449" s="9"/>
-      <c r="R449" s="9"/>
+      <c r="R449" s="9" t="s">
+        <v>1146</v>
+      </c>
       <c r="S449" s="9"/>
       <c r="T449" s="9"/>
       <c r="U449" s="9"/>
@@ -23497,7 +23513,9 @@
       <c r="O470" s="9"/>
       <c r="P470" s="9"/>
       <c r="Q470" s="9"/>
-      <c r="R470" s="9"/>
+      <c r="R470" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S470" s="9"/>
       <c r="T470" s="9"/>
       <c r="U470" s="9"/>
@@ -27235,9 +27253,7 @@
       <c r="O565" s="9"/>
       <c r="P565" s="9"/>
       <c r="Q565" s="9"/>
-      <c r="R565" s="9" t="s">
-        <v>1148</v>
-      </c>
+      <c r="R565" s="9"/>
       <c r="S565" s="9"/>
       <c r="T565" s="9"/>
       <c r="U565" s="9"/>
@@ -27278,7 +27294,9 @@
       <c r="O566" s="9"/>
       <c r="P566" s="9"/>
       <c r="Q566" s="9"/>
-      <c r="R566" s="9"/>
+      <c r="R566" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S566" s="9"/>
       <c r="T566" s="9"/>
       <c r="U566" s="9"/>
@@ -28350,7 +28368,9 @@
       <c r="O593" s="9"/>
       <c r="P593" s="9"/>
       <c r="Q593" s="9"/>
-      <c r="R593" s="9"/>
+      <c r="R593" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S593" s="9"/>
       <c r="T593" s="9"/>
       <c r="U593" s="9"/>
@@ -28427,7 +28447,9 @@
       <c r="O595" s="9"/>
       <c r="P595" s="9"/>
       <c r="Q595" s="9"/>
-      <c r="R595" s="9"/>
+      <c r="R595" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S595" s="9"/>
       <c r="T595" s="9"/>
       <c r="U595" s="9"/>
@@ -28900,7 +28922,9 @@
       <c r="O607" s="9"/>
       <c r="P607" s="9"/>
       <c r="Q607" s="9"/>
-      <c r="R607" s="9"/>
+      <c r="R607" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S607" s="9"/>
       <c r="T607" s="9"/>
       <c r="U607" s="9"/>
@@ -29175,7 +29199,7 @@
       <c r="P614" s="9"/>
       <c r="Q614" s="9"/>
       <c r="R614" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="S614" s="9"/>
       <c r="T614" s="9"/>
@@ -30704,7 +30728,9 @@
       <c r="O653" s="9"/>
       <c r="P653" s="9"/>
       <c r="Q653" s="9"/>
-      <c r="R653" s="9"/>
+      <c r="R653" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S653" s="9"/>
       <c r="T653" s="9"/>
       <c r="U653" s="9"/>
@@ -31749,7 +31775,9 @@
       <c r="O680" s="9"/>
       <c r="P680" s="9"/>
       <c r="Q680" s="9"/>
-      <c r="R680" s="9"/>
+      <c r="R680" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S680" s="9"/>
       <c r="T680" s="9"/>
       <c r="U680" s="9"/>
@@ -32677,7 +32705,7 @@
       <c r="P704" s="9"/>
       <c r="Q704" s="9"/>
       <c r="R704" s="9" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
       <c r="S704" s="9"/>
       <c r="T704" s="9"/>
@@ -33880,7 +33908,9 @@
       <c r="O735" s="9"/>
       <c r="P735" s="9"/>
       <c r="Q735" s="9"/>
-      <c r="R735" s="9"/>
+      <c r="R735" s="9" t="s">
+        <v>1144</v>
+      </c>
       <c r="S735" s="9"/>
       <c r="T735" s="9"/>
       <c r="U735" s="9"/>
@@ -35265,7 +35295,7 @@
       <c r="P771" s="9"/>
       <c r="Q771" s="9"/>
       <c r="R771" s="9" t="s">
-        <v>1144</v>
+        <v>1163</v>
       </c>
       <c r="S771" s="9"/>
       <c r="T771" s="9"/>
@@ -35348,7 +35378,7 @@
       <c r="P773" s="9"/>
       <c r="Q773" s="9"/>
       <c r="R773" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="S773" s="9"/>
       <c r="T773" s="9"/>
@@ -35941,7 +35971,9 @@
       <c r="O788" s="9"/>
       <c r="P788" s="9"/>
       <c r="Q788" s="9"/>
-      <c r="R788" s="9"/>
+      <c r="R788" s="9" t="s">
+        <v>1164</v>
+      </c>
       <c r="S788" s="9"/>
       <c r="T788" s="9"/>
       <c r="U788" s="9"/>
@@ -36139,7 +36171,7 @@
       <c r="P793" s="9"/>
       <c r="Q793" s="9"/>
       <c r="R793" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="S793" s="9"/>
       <c r="T793" s="9"/>
@@ -36388,7 +36420,7 @@
       <c r="P799" s="9"/>
       <c r="Q799" s="9"/>
       <c r="R799" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S799" s="9"/>
       <c r="T799" s="9"/>
@@ -38261,7 +38293,9 @@
       <c r="O846" s="9"/>
       <c r="P846" s="9"/>
       <c r="Q846" s="9"/>
-      <c r="R846" s="9"/>
+      <c r="R846" s="9" t="s">
+        <v>1143</v>
+      </c>
       <c r="S846" s="9"/>
       <c r="T846" s="9"/>
       <c r="U846" s="9"/>
@@ -38342,7 +38376,9 @@
       <c r="O848" s="9"/>
       <c r="P848" s="9"/>
       <c r="Q848" s="9"/>
-      <c r="R848" s="9"/>
+      <c r="R848" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="S848" s="9"/>
       <c r="T848" s="9"/>
       <c r="U848" s="9"/>
@@ -38383,7 +38419,7 @@
       <c r="P849" s="9"/>
       <c r="Q849" s="9"/>
       <c r="R849" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="S849" s="9"/>
       <c r="T849" s="9"/>
@@ -39917,7 +39953,9 @@
       <c r="O888" s="9"/>
       <c r="P888" s="9"/>
       <c r="Q888" s="9"/>
-      <c r="R888" s="9"/>
+      <c r="R888" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S888" s="9"/>
       <c r="T888" s="9"/>
       <c r="U888" s="9"/>
@@ -40418,7 +40456,7 @@
       <c r="P901" s="9"/>
       <c r="Q901" s="9"/>
       <c r="R901" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S901" s="9"/>
       <c r="T901" s="9"/>
@@ -40536,7 +40574,7 @@
       <c r="P904" s="9"/>
       <c r="Q904" s="9"/>
       <c r="R904" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S904" s="9"/>
       <c r="T904" s="9"/>
@@ -40694,7 +40732,9 @@
       <c r="O908" s="9"/>
       <c r="P908" s="9"/>
       <c r="Q908" s="9"/>
-      <c r="R908" s="9"/>
+      <c r="R908" s="9" t="s">
+        <v>1150</v>
+      </c>
       <c r="S908" s="9"/>
       <c r="T908" s="9"/>
       <c r="U908" s="9"/>
@@ -40772,7 +40812,9 @@
       <c r="O910" s="9"/>
       <c r="P910" s="9"/>
       <c r="Q910" s="9"/>
-      <c r="R910" s="9"/>
+      <c r="R910" s="9" t="s">
+        <v>1068</v>
+      </c>
       <c r="S910" s="9"/>
       <c r="T910" s="9"/>
       <c r="U910" s="9"/>
@@ -41196,7 +41238,9 @@
       <c r="O921" s="9"/>
       <c r="P921" s="9"/>
       <c r="Q921" s="9"/>
-      <c r="R921" s="9"/>
+      <c r="R921" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="S921" s="9"/>
       <c r="T921" s="9"/>
       <c r="U921" s="9"/>
@@ -41591,7 +41635,9 @@
       <c r="O931" s="9"/>
       <c r="P931" s="9"/>
       <c r="Q931" s="9"/>
-      <c r="R931" s="9"/>
+      <c r="R931" s="9" t="s">
+        <v>1144</v>
+      </c>
       <c r="S931" s="9"/>
       <c r="T931" s="9"/>
       <c r="U931" s="9"/>
@@ -41667,7 +41713,9 @@
       <c r="O933" s="9"/>
       <c r="P933" s="9"/>
       <c r="Q933" s="9"/>
-      <c r="R933" s="9"/>
+      <c r="R933" s="9" t="s">
+        <v>1144</v>
+      </c>
       <c r="S933" s="9"/>
       <c r="T933" s="9"/>
       <c r="U933" s="9"/>
@@ -42700,7 +42748,7 @@
       </c>
     </row>
     <row r="960" spans="8:30" x14ac:dyDescent="0.3">
-      <c r="H960" s="11" t="s">
+      <c r="H960" s="38" t="s">
         <v>852</v>
       </c>
       <c r="I960" s="11">
@@ -42805,7 +42853,7 @@
       <c r="P962" s="9"/>
       <c r="Q962" s="9"/>
       <c r="R962" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="S962" s="9"/>
       <c r="T962" s="9"/>
@@ -42888,7 +42936,7 @@
       <c r="P964" s="9"/>
       <c r="Q964" s="9"/>
       <c r="R964" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="S964" s="9"/>
       <c r="T964" s="9"/>
@@ -43073,7 +43121,7 @@
         <v>9</v>
       </c>
       <c r="M969" s="32" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="N969" s="8"/>
       <c r="O969" s="9"/>
@@ -43467,7 +43515,7 @@
       <c r="P979" s="9"/>
       <c r="Q979" s="9"/>
       <c r="R979" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S979" s="9"/>
       <c r="T979" s="9"/>
@@ -48174,7 +48222,7 @@
       <c r="P1099" s="9"/>
       <c r="Q1099" s="9"/>
       <c r="R1099" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S1099" s="9"/>
       <c r="T1099" s="9"/>
@@ -49300,7 +49348,7 @@
         <v>53</v>
       </c>
       <c r="M1128" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="N1128" s="9" t="s">
         <v>0</v>
@@ -59457,7 +59505,7 @@
       <c r="P1386" s="9"/>
       <c r="Q1386" s="9"/>
       <c r="R1386" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="S1386" s="9"/>
       <c r="T1386" s="9"/>
@@ -60552,7 +60600,7 @@
         <v>105</v>
       </c>
       <c r="M1414" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N1414" s="9" t="s">
         <v>0</v>
@@ -60754,7 +60802,7 @@
       <c r="P1419" s="9"/>
       <c r="Q1419" s="9"/>
       <c r="R1419" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="S1419" s="9"/>
       <c r="T1419" s="9"/>
@@ -61315,7 +61363,7 @@
       <c r="P1433" s="9"/>
       <c r="Q1433" s="9"/>
       <c r="R1433" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="S1433" s="9"/>
       <c r="T1433" s="9"/>
@@ -63304,7 +63352,7 @@
       <c r="P1484" s="9"/>
       <c r="Q1484" s="9"/>
       <c r="R1484" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S1484" s="9"/>
       <c r="T1484" s="9"/>
@@ -63458,7 +63506,7 @@
       <c r="P1488" s="9"/>
       <c r="Q1488" s="9"/>
       <c r="R1488" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="S1488" s="9"/>
       <c r="T1488" s="9"/>
@@ -64128,7 +64176,7 @@
       <c r="P1505" s="9"/>
       <c r="Q1505" s="9"/>
       <c r="R1505" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S1505" s="9"/>
       <c r="T1505" s="9"/>
@@ -64211,7 +64259,7 @@
       <c r="P1507" s="9"/>
       <c r="Q1507" s="9"/>
       <c r="R1507" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="S1507" s="9"/>
       <c r="T1507" s="9"/>

--- a/padam_excel/TS 1.1 Padam Input Template.xlsx
+++ b/padam_excel/TS 1.1 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3938" uniqueCount="1174">
   <si>
     <t>PS</t>
   </si>
@@ -3347,9 +3347,6 @@
     <t>suqmniqnIq iti# sumninI |</t>
   </si>
   <si>
-    <t>na#H |</t>
-  </si>
-  <si>
     <t>dhAq iti# dhAH ||</t>
   </si>
   <si>
@@ -3476,9 +3473,6 @@
     <t>NSE</t>
   </si>
   <si>
-    <t>NSE,RE</t>
-  </si>
-  <si>
     <t>indrA#vAn |</t>
   </si>
   <si>
@@ -3503,9 +3497,6 @@
     <t>NGM</t>
   </si>
   <si>
-    <t>SE?</t>
-  </si>
-  <si>
     <t>NE?</t>
   </si>
   <si>
@@ -3518,40 +3509,46 @@
     <t>yaqjaqnteq || 1.35.13</t>
   </si>
   <si>
-    <t>gRuqhNAqmiq || 1.52.50</t>
-  </si>
-  <si>
     <t xml:space="preserve">aqpAqnam | </t>
   </si>
   <si>
     <t>E,SE,Re</t>
   </si>
   <si>
-    <t>NE,NRE?</t>
-  </si>
-  <si>
-    <t>NE,SE</t>
-  </si>
-  <si>
-    <t>gm</t>
-  </si>
-  <si>
     <t>gm,Sgm</t>
   </si>
   <si>
     <t>nogm</t>
   </si>
   <si>
-    <t>dhAqH || TTD</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
     <t>NO GM</t>
   </si>
   <si>
-    <t>kaqlpayA#ti || TTD</t>
+    <t>gRuqhNAqmiq || 1.57.50</t>
+  </si>
+  <si>
+    <t>NE,NRE</t>
+  </si>
+  <si>
+    <t>NSE,RE?</t>
+  </si>
+  <si>
+    <t>NE,SE?</t>
+  </si>
+  <si>
+    <t>gm,rgm</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaqlpayA#ti || </t>
+  </si>
+  <si>
+    <t>dhAqH ||</t>
   </si>
 </sst>
 </file>
@@ -3669,7 +3666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3788,7 +3785,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4076,10 +4079,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1529" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1330" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="M1511" sqref="M1511"/>
+      <selection pane="bottomLeft" activeCell="M1309" sqref="M1309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -5779,7 +5782,7 @@
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
@@ -6052,7 +6055,7 @@
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="23" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
@@ -6959,7 +6962,7 @@
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
       <c r="R52" s="23" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
@@ -7278,7 +7281,7 @@
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
       <c r="R59" s="23" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S59" s="23"/>
       <c r="T59" s="23"/>
@@ -8246,7 +8249,7 @@
       <c r="P81" s="23"/>
       <c r="Q81" s="23"/>
       <c r="R81" s="23" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="S81" s="23"/>
       <c r="T81" s="23"/>
@@ -9258,7 +9261,7 @@
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
       <c r="R106" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
@@ -9649,7 +9652,7 @@
       <c r="O116" s="8"/>
       <c r="P116" s="9"/>
       <c r="Q116" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="R116" s="9"/>
       <c r="S116" s="9"/>
@@ -9689,7 +9692,7 @@
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
       <c r="P117" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
@@ -10594,7 +10597,7 @@
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
       <c r="R140" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S140" s="9"/>
       <c r="T140" s="9"/>
@@ -11020,10 +11023,10 @@
       <c r="P151" s="9"/>
       <c r="Q151" s="9"/>
       <c r="R151" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="S151" s="9" t="s">
         <v>1135</v>
-      </c>
-      <c r="S151" s="9" t="s">
-        <v>1136</v>
       </c>
       <c r="T151" s="9"/>
       <c r="U151" s="9"/>
@@ -11528,7 +11531,7 @@
       <c r="P164" s="9"/>
       <c r="Q164" s="9"/>
       <c r="R164" s="9" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S164" s="9"/>
       <c r="T164" s="9"/>
@@ -12275,7 +12278,7 @@
         <v>50</v>
       </c>
       <c r="M183" s="32" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="N183" s="8"/>
       <c r="O183" s="9"/>
@@ -12987,7 +12990,7 @@
       <c r="P201" s="9"/>
       <c r="Q201" s="9"/>
       <c r="R201" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S201" s="9"/>
       <c r="T201" s="9"/>
@@ -14086,10 +14089,10 @@
       <c r="P229" s="9"/>
       <c r="Q229" s="9"/>
       <c r="R229" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="S229" s="9" t="s">
         <v>1135</v>
-      </c>
-      <c r="S229" s="9" t="s">
-        <v>1136</v>
       </c>
       <c r="T229" s="9"/>
       <c r="U229" s="9"/>
@@ -14860,7 +14863,7 @@
       <c r="P249" s="9"/>
       <c r="Q249" s="9"/>
       <c r="R249" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S249" s="9"/>
       <c r="T249" s="9"/>
@@ -15019,7 +15022,7 @@
       <c r="P253" s="9"/>
       <c r="Q253" s="9"/>
       <c r="R253" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S253" s="9"/>
       <c r="T253" s="9"/>
@@ -16104,7 +16107,7 @@
       <c r="P281" s="9"/>
       <c r="Q281" s="9"/>
       <c r="R281" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S281" s="9"/>
       <c r="T281" s="9"/>
@@ -16265,7 +16268,7 @@
       <c r="P285" s="9"/>
       <c r="Q285" s="9"/>
       <c r="R285" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S285" s="9"/>
       <c r="T285" s="9"/>
@@ -16772,7 +16775,7 @@
       <c r="P298" s="9"/>
       <c r="Q298" s="9"/>
       <c r="R298" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S298" s="9"/>
       <c r="T298" s="9"/>
@@ -16852,7 +16855,7 @@
       <c r="P300" s="9"/>
       <c r="Q300" s="9"/>
       <c r="R300" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S300" s="9"/>
       <c r="T300" s="9"/>
@@ -16897,7 +16900,7 @@
       <c r="P301" s="9"/>
       <c r="Q301" s="9"/>
       <c r="R301" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="S301" s="9"/>
       <c r="T301" s="9"/>
@@ -16940,7 +16943,7 @@
       <c r="P302" s="9"/>
       <c r="Q302" s="9"/>
       <c r="R302" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S302" s="9"/>
       <c r="T302" s="9"/>
@@ -17094,7 +17097,7 @@
       <c r="P306" s="9"/>
       <c r="Q306" s="9"/>
       <c r="R306" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S306" s="9"/>
       <c r="T306" s="9"/>
@@ -17291,7 +17294,7 @@
       <c r="P311" s="9"/>
       <c r="Q311" s="9"/>
       <c r="R311" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="S311" s="9"/>
       <c r="T311" s="9"/>
@@ -17450,7 +17453,7 @@
       <c r="P315" s="9"/>
       <c r="Q315" s="9"/>
       <c r="R315" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S315" s="9"/>
       <c r="T315" s="9"/>
@@ -17614,7 +17617,7 @@
       <c r="P319" s="9"/>
       <c r="Q319" s="9"/>
       <c r="R319" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="S319" s="9"/>
       <c r="T319" s="9"/>
@@ -18010,7 +18013,7 @@
       <c r="P329" s="9"/>
       <c r="Q329" s="9"/>
       <c r="R329" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S329" s="9"/>
       <c r="T329" s="9"/>
@@ -18093,7 +18096,7 @@
       <c r="P331" s="9"/>
       <c r="Q331" s="9"/>
       <c r="R331" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S331" s="9"/>
       <c r="T331" s="9"/>
@@ -18136,7 +18139,7 @@
       <c r="P332" s="9"/>
       <c r="Q332" s="9"/>
       <c r="R332" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S332" s="9"/>
       <c r="T332" s="9"/>
@@ -18176,7 +18179,7 @@
       <c r="P333" s="9"/>
       <c r="Q333" s="9"/>
       <c r="R333" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S333" s="9"/>
       <c r="T333" s="9"/>
@@ -18643,7 +18646,7 @@
       <c r="P345" s="9"/>
       <c r="Q345" s="9"/>
       <c r="R345" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S345" s="9"/>
       <c r="T345" s="9"/>
@@ -18759,7 +18762,7 @@
       <c r="P348" s="9"/>
       <c r="Q348" s="9"/>
       <c r="R348" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S348" s="9"/>
       <c r="T348" s="9"/>
@@ -18837,7 +18840,7 @@
       <c r="P350" s="9"/>
       <c r="Q350" s="9"/>
       <c r="R350" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S350" s="9"/>
       <c r="T350" s="9"/>
@@ -19115,7 +19118,7 @@
       <c r="P357" s="9"/>
       <c r="Q357" s="9"/>
       <c r="R357" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S357" s="9"/>
       <c r="T357" s="9"/>
@@ -20224,7 +20227,7 @@
       <c r="P385" s="9"/>
       <c r="Q385" s="9"/>
       <c r="R385" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S385" s="9"/>
       <c r="T385" s="9"/>
@@ -20340,7 +20343,7 @@
       <c r="P388" s="9"/>
       <c r="Q388" s="9"/>
       <c r="R388" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S388" s="9"/>
       <c r="T388" s="9"/>
@@ -20775,7 +20778,7 @@
       <c r="P399" s="9"/>
       <c r="Q399" s="9"/>
       <c r="R399" s="9" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="S399" s="9"/>
       <c r="T399" s="9"/>
@@ -20899,7 +20902,7 @@
       <c r="P402" s="9"/>
       <c r="Q402" s="9"/>
       <c r="R402" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S402" s="9"/>
       <c r="T402" s="9"/>
@@ -20939,7 +20942,7 @@
       <c r="P403" s="9"/>
       <c r="Q403" s="9"/>
       <c r="R403" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S403" s="9"/>
       <c r="T403" s="9"/>
@@ -21404,7 +21407,7 @@
       <c r="P415" s="9"/>
       <c r="Q415" s="9"/>
       <c r="R415" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S415" s="9"/>
       <c r="T415" s="9"/>
@@ -21558,7 +21561,7 @@
       <c r="P419" s="9"/>
       <c r="Q419" s="9"/>
       <c r="R419" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="S419" s="9"/>
       <c r="T419" s="9"/>
@@ -21866,7 +21869,7 @@
       <c r="P427" s="9"/>
       <c r="Q427" s="9"/>
       <c r="R427" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S427" s="9"/>
       <c r="T427" s="9"/>
@@ -22255,7 +22258,7 @@
       <c r="P437" s="9"/>
       <c r="Q437" s="9"/>
       <c r="R437" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S437" s="9"/>
       <c r="T437" s="9"/>
@@ -22728,7 +22731,7 @@
       <c r="P449" s="9"/>
       <c r="Q449" s="9"/>
       <c r="R449" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S449" s="9"/>
       <c r="T449" s="9"/>
@@ -23482,7 +23485,7 @@
       <c r="P468" s="9"/>
       <c r="Q468" s="9"/>
       <c r="R468" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S468" s="9"/>
       <c r="T468" s="9"/>
@@ -23522,7 +23525,7 @@
       <c r="P469" s="9"/>
       <c r="Q469" s="9"/>
       <c r="R469" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S469" s="9"/>
       <c r="T469" s="9"/>
@@ -23563,7 +23566,7 @@
       <c r="P470" s="9"/>
       <c r="Q470" s="9"/>
       <c r="R470" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S470" s="9"/>
       <c r="T470" s="9"/>
@@ -24051,7 +24054,7 @@
       <c r="P482" s="9"/>
       <c r="Q482" s="9"/>
       <c r="R482" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S482" s="9"/>
       <c r="T482" s="9"/>
@@ -24824,7 +24827,7 @@
         <v>39</v>
       </c>
       <c r="M502" s="40" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="N502" s="9" t="s">
         <v>0</v>
@@ -25646,7 +25649,7 @@
       <c r="P523" s="9"/>
       <c r="Q523" s="9"/>
       <c r="R523" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S523" s="9"/>
       <c r="T523" s="9"/>
@@ -26586,7 +26589,7 @@
       <c r="P547" s="9"/>
       <c r="Q547" s="9"/>
       <c r="R547" s="9" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="S547" s="9"/>
       <c r="T547" s="9"/>
@@ -26981,7 +26984,7 @@
       <c r="P557" s="9"/>
       <c r="Q557" s="9"/>
       <c r="R557" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S557" s="9"/>
       <c r="T557" s="9"/>
@@ -27344,7 +27347,7 @@
       <c r="P566" s="9"/>
       <c r="Q566" s="9"/>
       <c r="R566" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S566" s="9"/>
       <c r="T566" s="9"/>
@@ -27784,7 +27787,7 @@
       <c r="P577" s="9"/>
       <c r="Q577" s="9"/>
       <c r="R577" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S577" s="9"/>
       <c r="T577" s="9"/>
@@ -28223,7 +28226,7 @@
       <c r="P588" s="9"/>
       <c r="Q588" s="9"/>
       <c r="R588" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="S588" s="9"/>
       <c r="T588" s="9"/>
@@ -28303,7 +28306,7 @@
       <c r="P590" s="9"/>
       <c r="Q590" s="9"/>
       <c r="R590" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S590" s="9"/>
       <c r="T590" s="9"/>
@@ -28422,7 +28425,7 @@
       <c r="P593" s="9"/>
       <c r="Q593" s="9"/>
       <c r="R593" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="S593" s="9"/>
       <c r="T593" s="9"/>
@@ -28501,7 +28504,7 @@
       <c r="P595" s="9"/>
       <c r="Q595" s="9"/>
       <c r="R595" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S595" s="9"/>
       <c r="T595" s="9"/>
@@ -28976,7 +28979,7 @@
       <c r="P607" s="9"/>
       <c r="Q607" s="9"/>
       <c r="R607" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S607" s="9"/>
       <c r="T607" s="9"/>
@@ -29019,7 +29022,7 @@
       <c r="P608" s="9"/>
       <c r="Q608" s="9"/>
       <c r="R608" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="S608" s="9"/>
       <c r="T608" s="9"/>
@@ -29252,7 +29255,7 @@
       <c r="P614" s="9"/>
       <c r="Q614" s="9"/>
       <c r="R614" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="S614" s="9"/>
       <c r="T614" s="9"/>
@@ -29330,7 +29333,7 @@
       <c r="P616" s="9"/>
       <c r="Q616" s="9"/>
       <c r="R616" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S616" s="9"/>
       <c r="T616" s="9"/>
@@ -29486,7 +29489,7 @@
       <c r="P620" s="9"/>
       <c r="Q620" s="9"/>
       <c r="R620" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S620" s="9"/>
       <c r="T620" s="9"/>
@@ -29564,7 +29567,7 @@
       <c r="P622" s="9"/>
       <c r="Q622" s="9"/>
       <c r="R622" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S622" s="9"/>
       <c r="T622" s="9"/>
@@ -29981,7 +29984,7 @@
         <v>72</v>
       </c>
       <c r="M633" s="24" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="N633" s="28"/>
       <c r="O633" s="29" t="s">
@@ -30184,7 +30187,7 @@
       <c r="P638" s="9"/>
       <c r="Q638" s="9"/>
       <c r="R638" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S638" s="9"/>
       <c r="T638" s="9"/>
@@ -30740,7 +30743,7 @@
       <c r="P652" s="9"/>
       <c r="Q652" s="9"/>
       <c r="R652" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S652" s="9"/>
       <c r="T652" s="9"/>
@@ -30782,7 +30785,7 @@
       <c r="P653" s="9"/>
       <c r="Q653" s="9"/>
       <c r="R653" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S653" s="9"/>
       <c r="T653" s="9"/>
@@ -31402,7 +31405,7 @@
       <c r="P669" s="9"/>
       <c r="Q669" s="9"/>
       <c r="R669" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S669" s="9"/>
       <c r="T669" s="9"/>
@@ -31670,7 +31673,7 @@
       <c r="P676" s="9"/>
       <c r="Q676" s="9"/>
       <c r="R676" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="S676" s="9"/>
       <c r="T676" s="9"/>
@@ -31788,7 +31791,7 @@
       <c r="P679" s="9"/>
       <c r="Q679" s="9"/>
       <c r="R679" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S679" s="9"/>
       <c r="T679" s="9"/>
@@ -31831,7 +31834,7 @@
       <c r="P680" s="9"/>
       <c r="Q680" s="9"/>
       <c r="R680" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S680" s="9"/>
       <c r="T680" s="9"/>
@@ -32494,7 +32497,7 @@
       <c r="P697" s="9"/>
       <c r="Q697" s="9"/>
       <c r="R697" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S697" s="9"/>
       <c r="T697" s="9"/>
@@ -32762,7 +32765,7 @@
       <c r="P704" s="9"/>
       <c r="Q704" s="9"/>
       <c r="R704" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="S704" s="9"/>
       <c r="T704" s="9"/>
@@ -32880,7 +32883,7 @@
       <c r="P707" s="9"/>
       <c r="Q707" s="9"/>
       <c r="R707" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S707" s="9"/>
       <c r="T707" s="9"/>
@@ -33850,7 +33853,7 @@
       <c r="P732" s="9"/>
       <c r="Q732" s="9"/>
       <c r="R732" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="S732" s="9"/>
       <c r="T732" s="9"/>
@@ -33966,7 +33969,7 @@
       <c r="P735" s="9"/>
       <c r="Q735" s="9"/>
       <c r="R735" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S735" s="9"/>
       <c r="T735" s="9"/>
@@ -35352,7 +35355,7 @@
       <c r="P771" s="9"/>
       <c r="Q771" s="9"/>
       <c r="R771" s="9" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="S771" s="9"/>
       <c r="T771" s="9"/>
@@ -35435,7 +35438,7 @@
       <c r="P773" s="9"/>
       <c r="Q773" s="9"/>
       <c r="R773" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S773" s="9"/>
       <c r="T773" s="9"/>
@@ -35665,7 +35668,7 @@
       <c r="P779" s="9"/>
       <c r="Q779" s="9"/>
       <c r="R779" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S779" s="9"/>
       <c r="T779" s="9"/>
@@ -36029,7 +36032,7 @@
       <c r="P788" s="9"/>
       <c r="Q788" s="9"/>
       <c r="R788" s="9" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="S788" s="9"/>
       <c r="T788" s="9"/>
@@ -36228,7 +36231,7 @@
       <c r="P793" s="9"/>
       <c r="Q793" s="9"/>
       <c r="R793" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S793" s="9"/>
       <c r="T793" s="9"/>
@@ -36264,7 +36267,7 @@
         <v>161</v>
       </c>
       <c r="M794" s="41" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="N794" s="8"/>
       <c r="O794" s="9" t="s">
@@ -36437,7 +36440,7 @@
       <c r="P798" s="9"/>
       <c r="Q798" s="9"/>
       <c r="R798" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="S798" s="9"/>
       <c r="T798" s="9"/>
@@ -36477,7 +36480,7 @@
       <c r="P799" s="9"/>
       <c r="Q799" s="9"/>
       <c r="R799" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="S799" s="9"/>
       <c r="T799" s="9"/>
@@ -37819,7 +37822,7 @@
       <c r="P833" s="9"/>
       <c r="Q833" s="9"/>
       <c r="R833" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S833" s="9"/>
       <c r="T833" s="9"/>
@@ -37861,7 +37864,7 @@
       <c r="P834" s="9"/>
       <c r="Q834" s="9"/>
       <c r="R834" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="S834" s="9"/>
       <c r="T834" s="9"/>
@@ -38351,7 +38354,7 @@
       <c r="P846" s="9"/>
       <c r="Q846" s="9"/>
       <c r="R846" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S846" s="9"/>
       <c r="T846" s="9"/>
@@ -38434,7 +38437,7 @@
       <c r="P848" s="9"/>
       <c r="Q848" s="9"/>
       <c r="R848" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S848" s="9"/>
       <c r="T848" s="9"/>
@@ -38476,7 +38479,7 @@
       <c r="P849" s="9"/>
       <c r="Q849" s="9"/>
       <c r="R849" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S849" s="9"/>
       <c r="T849" s="9"/>
@@ -38749,7 +38752,7 @@
       <c r="P856" s="9"/>
       <c r="Q856" s="9"/>
       <c r="R856" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S856" s="9"/>
       <c r="T856" s="9"/>
@@ -39461,7 +39464,7 @@
       <c r="P874" s="9"/>
       <c r="Q874" s="9"/>
       <c r="R874" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="S874" s="9"/>
       <c r="T874" s="9"/>
@@ -39698,7 +39701,7 @@
       <c r="P880" s="9"/>
       <c r="Q880" s="9"/>
       <c r="R880" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="S880" s="9"/>
       <c r="T880" s="9"/>
@@ -40011,7 +40014,7 @@
       <c r="P888" s="9"/>
       <c r="Q888" s="9"/>
       <c r="R888" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S888" s="9"/>
       <c r="T888" s="9"/>
@@ -40203,7 +40206,7 @@
       <c r="P893" s="9"/>
       <c r="Q893" s="9"/>
       <c r="R893" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S893" s="9"/>
       <c r="T893" s="9"/>
@@ -40397,7 +40400,7 @@
       <c r="P898" s="9"/>
       <c r="Q898" s="9"/>
       <c r="R898" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S898" s="9"/>
       <c r="T898" s="9"/>
@@ -40513,7 +40516,7 @@
       <c r="P901" s="9"/>
       <c r="Q901" s="9"/>
       <c r="R901" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="S901" s="9"/>
       <c r="T901" s="9"/>
@@ -40631,7 +40634,7 @@
       <c r="P904" s="9"/>
       <c r="Q904" s="9"/>
       <c r="R904" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="S904" s="9"/>
       <c r="T904" s="9"/>
@@ -40790,7 +40793,7 @@
       <c r="P908" s="9"/>
       <c r="Q908" s="9"/>
       <c r="R908" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="S908" s="9"/>
       <c r="T908" s="9"/>
@@ -40870,7 +40873,7 @@
       <c r="P910" s="9"/>
       <c r="Q910" s="9"/>
       <c r="R910" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S910" s="9"/>
       <c r="T910" s="9"/>
@@ -40986,7 +40989,7 @@
       <c r="P913" s="9"/>
       <c r="Q913" s="9"/>
       <c r="R913" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S913" s="9"/>
       <c r="T913" s="9"/>
@@ -41218,7 +41221,7 @@
       <c r="P919" s="9"/>
       <c r="Q919" s="9"/>
       <c r="R919" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S919" s="9"/>
       <c r="T919" s="9"/>
@@ -41296,7 +41299,7 @@
       <c r="P921" s="9"/>
       <c r="Q921" s="9"/>
       <c r="R921" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S921" s="9"/>
       <c r="T921" s="9"/>
@@ -41693,7 +41696,7 @@
       <c r="P931" s="9"/>
       <c r="Q931" s="9"/>
       <c r="R931" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S931" s="9"/>
       <c r="T931" s="9"/>
@@ -41771,7 +41774,7 @@
       <c r="P933" s="9"/>
       <c r="Q933" s="9"/>
       <c r="R933" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S933" s="9"/>
       <c r="T933" s="9"/>
@@ -42588,7 +42591,7 @@
       <c r="P954" s="9"/>
       <c r="Q954" s="9"/>
       <c r="R954" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S954" s="9"/>
       <c r="T954" s="9"/>
@@ -42666,7 +42669,7 @@
       <c r="P956" s="9"/>
       <c r="Q956" s="9"/>
       <c r="R956" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S956" s="9"/>
       <c r="T956" s="9"/>
@@ -42823,7 +42826,7 @@
         <v>166</v>
       </c>
       <c r="M960" s="39" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="N960" s="8"/>
       <c r="O960" s="9" t="s">
@@ -42910,7 +42913,7 @@
       <c r="P962" s="9"/>
       <c r="Q962" s="9"/>
       <c r="R962" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="S962" s="9"/>
       <c r="T962" s="9"/>
@@ -42993,7 +42996,7 @@
       <c r="P964" s="9"/>
       <c r="Q964" s="9"/>
       <c r="R964" s="9" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="S964" s="9"/>
       <c r="T964" s="9"/>
@@ -43146,7 +43149,9 @@
       <c r="O968" s="9"/>
       <c r="P968" s="9"/>
       <c r="Q968" s="9"/>
-      <c r="R968" s="9"/>
+      <c r="R968" s="9" t="s">
+        <v>1137</v>
+      </c>
       <c r="S968" s="9"/>
       <c r="T968" s="9"/>
       <c r="U968" s="9"/>
@@ -43178,7 +43183,7 @@
         <v>9</v>
       </c>
       <c r="M969" s="32" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N969" s="8"/>
       <c r="O969" s="9"/>
@@ -43337,7 +43342,7 @@
       <c r="P973" s="9"/>
       <c r="Q973" s="9"/>
       <c r="R973" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S973" s="9"/>
       <c r="T973" s="9"/>
@@ -43572,7 +43577,7 @@
       <c r="P979" s="9"/>
       <c r="Q979" s="9"/>
       <c r="R979" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="S979" s="9"/>
       <c r="T979" s="9"/>
@@ -44121,7 +44126,7 @@
       <c r="P993" s="9"/>
       <c r="Q993" s="9"/>
       <c r="R993" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S993" s="9"/>
       <c r="T993" s="9"/>
@@ -44399,7 +44404,7 @@
       <c r="P1000" s="9"/>
       <c r="Q1000" s="9"/>
       <c r="R1000" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S1000" s="9"/>
       <c r="T1000" s="9"/>
@@ -44791,7 +44796,7 @@
       <c r="P1010" s="9"/>
       <c r="Q1010" s="9"/>
       <c r="R1010" s="9" t="s">
-        <v>1138</v>
+        <v>1154</v>
       </c>
       <c r="S1010" s="9"/>
       <c r="T1010" s="9"/>
@@ -45972,7 +45977,7 @@
       <c r="P1040" s="9"/>
       <c r="Q1040" s="9"/>
       <c r="R1040" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S1040" s="9"/>
       <c r="T1040" s="9"/>
@@ -46050,7 +46055,7 @@
       <c r="P1042" s="9"/>
       <c r="Q1042" s="9"/>
       <c r="R1042" s="9" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="S1042" s="9"/>
       <c r="T1042" s="9"/>
@@ -46518,7 +46523,7 @@
       <c r="P1054" s="9"/>
       <c r="Q1054" s="9"/>
       <c r="R1054" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S1054" s="9"/>
       <c r="T1054" s="9"/>
@@ -47531,7 +47536,7 @@
       <c r="P1080" s="9"/>
       <c r="Q1080" s="9"/>
       <c r="R1080" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S1080" s="9"/>
       <c r="T1080" s="9"/>
@@ -47806,7 +47811,7 @@
       <c r="P1087" s="9"/>
       <c r="Q1087" s="9"/>
       <c r="R1087" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S1087" s="9"/>
       <c r="T1087" s="9"/>
@@ -48283,7 +48288,7 @@
       <c r="P1099" s="9"/>
       <c r="Q1099" s="9"/>
       <c r="R1099" s="9" t="s">
-        <v>1149</v>
+        <v>1168</v>
       </c>
       <c r="S1099" s="9"/>
       <c r="T1099" s="9"/>
@@ -48943,7 +48948,7 @@
       <c r="P1116" s="9"/>
       <c r="Q1116" s="9"/>
       <c r="R1116" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S1116" s="9"/>
       <c r="T1116" s="9"/>
@@ -49058,7 +49063,9 @@
       <c r="O1119" s="9"/>
       <c r="P1119" s="9"/>
       <c r="Q1119" s="9"/>
-      <c r="R1119" s="9"/>
+      <c r="R1119" s="9" t="s">
+        <v>1142</v>
+      </c>
       <c r="S1119" s="9"/>
       <c r="T1119" s="9"/>
       <c r="U1119" s="9"/>
@@ -49216,7 +49223,7 @@
       <c r="P1123" s="9"/>
       <c r="Q1123" s="9"/>
       <c r="R1123" s="9" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="S1123" s="9"/>
       <c r="T1123" s="9"/>
@@ -49299,7 +49306,7 @@
       <c r="P1125" s="9"/>
       <c r="Q1125" s="9"/>
       <c r="R1125" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S1125" s="9"/>
       <c r="T1125" s="9"/>
@@ -49413,7 +49420,7 @@
         <v>53</v>
       </c>
       <c r="M1128" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="N1128" s="9" t="s">
         <v>0</v>
@@ -49653,7 +49660,7 @@
       <c r="P1134" s="9"/>
       <c r="Q1134" s="9"/>
       <c r="R1134" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S1134" s="9"/>
       <c r="T1134" s="9"/>
@@ -49971,7 +49978,7 @@
       <c r="P1142" s="9"/>
       <c r="Q1142" s="9"/>
       <c r="R1142" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S1142" s="9"/>
       <c r="T1142" s="9"/>
@@ -50452,7 +50459,7 @@
       <c r="P1154" s="9"/>
       <c r="Q1154" s="9"/>
       <c r="R1154" s="9" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="S1154" s="9"/>
       <c r="T1154" s="9"/>
@@ -50611,7 +50618,7 @@
       <c r="P1158" s="9"/>
       <c r="Q1158" s="9"/>
       <c r="R1158" s="9" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="S1158" s="9"/>
       <c r="T1158" s="9"/>
@@ -51013,7 +51020,7 @@
       <c r="P1168" s="9"/>
       <c r="Q1168" s="9"/>
       <c r="R1168" s="9" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="S1168" s="9"/>
       <c r="T1168" s="9"/>
@@ -51488,7 +51495,7 @@
       <c r="P1180" s="9"/>
       <c r="Q1180" s="9"/>
       <c r="R1180" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S1180" s="9"/>
       <c r="T1180" s="9"/>
@@ -52423,7 +52430,7 @@
       <c r="P1204" s="9"/>
       <c r="Q1204" s="9"/>
       <c r="R1204" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S1204" s="9"/>
       <c r="T1204" s="9"/>
@@ -52658,7 +52665,7 @@
       <c r="P1210" s="9"/>
       <c r="Q1210" s="9"/>
       <c r="R1210" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S1210" s="9"/>
       <c r="T1210" s="9"/>
@@ -53050,7 +53057,7 @@
       <c r="P1220" s="9"/>
       <c r="Q1220" s="9"/>
       <c r="R1220" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S1220" s="9"/>
       <c r="T1220" s="9"/>
@@ -54228,7 +54235,7 @@
       <c r="P1250" s="9"/>
       <c r="Q1250" s="9"/>
       <c r="R1250" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S1250" s="9"/>
       <c r="T1250" s="9"/>
@@ -54807,7 +54814,7 @@
         <f t="shared" si="43"/>
         <v>119</v>
       </c>
-      <c r="M1265" s="32" t="s">
+      <c r="M1265" s="43" t="s">
         <v>577</v>
       </c>
       <c r="N1265" s="8"/>
@@ -55005,7 +55012,7 @@
       <c r="P1270" s="9"/>
       <c r="Q1270" s="9"/>
       <c r="R1270" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S1270" s="9"/>
       <c r="T1270" s="9"/>
@@ -55047,7 +55054,7 @@
       <c r="P1271" s="9"/>
       <c r="Q1271" s="9"/>
       <c r="R1271" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S1271" s="9"/>
       <c r="T1271" s="9"/>
@@ -55092,7 +55099,7 @@
       <c r="P1272" s="9"/>
       <c r="Q1272" s="9"/>
       <c r="R1272" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S1272" s="9"/>
       <c r="T1272" s="9"/>
@@ -55211,7 +55218,7 @@
       <c r="P1275" s="9"/>
       <c r="Q1275" s="9"/>
       <c r="R1275" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="S1275" s="9"/>
       <c r="T1275" s="9"/>
@@ -55613,7 +55620,7 @@
       <c r="P1285" s="9"/>
       <c r="Q1285" s="9"/>
       <c r="R1285" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S1285" s="9"/>
       <c r="T1285" s="9"/>
@@ -56226,7 +56233,7 @@
         <v>155</v>
       </c>
       <c r="M1301" s="42" t="s">
-        <v>1106</v>
+        <v>202</v>
       </c>
       <c r="N1301" s="8"/>
       <c r="O1301" s="9"/>
@@ -56529,8 +56536,8 @@
         <f t="shared" si="45"/>
         <v>163</v>
       </c>
-      <c r="M1309" s="43" t="s">
-        <v>1171</v>
+      <c r="M1309" s="44" t="s">
+        <v>1173</v>
       </c>
       <c r="N1309" s="8"/>
       <c r="O1309" s="9" t="s">
@@ -56551,7 +56558,7 @@
       <c r="AB1309" s="9"/>
       <c r="AC1309" s="9"/>
       <c r="AD1309" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1310" spans="8:30" x14ac:dyDescent="0.3">
@@ -56864,7 +56871,7 @@
       <c r="AB1317" s="9"/>
       <c r="AC1317" s="9"/>
       <c r="AD1317" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1318" spans="8:30" x14ac:dyDescent="0.3">
@@ -57368,7 +57375,7 @@
       <c r="AB1330" s="9"/>
       <c r="AC1330" s="9"/>
       <c r="AD1330" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1331" spans="8:30" x14ac:dyDescent="0.3">
@@ -57887,7 +57894,7 @@
       <c r="AB1343" s="9"/>
       <c r="AC1343" s="9"/>
       <c r="AD1343" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1344" spans="8:30" x14ac:dyDescent="0.3">
@@ -58092,7 +58099,7 @@
       <c r="AB1348" s="9"/>
       <c r="AC1348" s="9"/>
       <c r="AD1348" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1349" spans="8:30" x14ac:dyDescent="0.3">
@@ -58211,7 +58218,7 @@
       <c r="AB1351" s="9"/>
       <c r="AC1351" s="9"/>
       <c r="AD1351" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1352" spans="8:30" x14ac:dyDescent="0.3">
@@ -58535,7 +58542,7 @@
       <c r="AB1359" s="9"/>
       <c r="AC1359" s="9"/>
       <c r="AD1359" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1360" spans="8:30" x14ac:dyDescent="0.3">
@@ -58925,7 +58932,7 @@
       <c r="AB1369" s="9"/>
       <c r="AC1369" s="9"/>
       <c r="AD1369" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1370" spans="8:30" x14ac:dyDescent="0.3">
@@ -59030,7 +59037,7 @@
       <c r="P1372" s="9"/>
       <c r="Q1372" s="9"/>
       <c r="R1372" s="9" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="S1372" s="9"/>
       <c r="T1372" s="9"/>
@@ -59357,7 +59364,7 @@
       <c r="AB1380" s="9"/>
       <c r="AC1380" s="9"/>
       <c r="AD1380" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1381" spans="8:30" x14ac:dyDescent="0.3">
@@ -59379,7 +59386,7 @@
         <v>72</v>
       </c>
       <c r="M1381" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N1381" s="9" t="s">
         <v>0</v>
@@ -59588,7 +59595,7 @@
       <c r="P1386" s="9"/>
       <c r="Q1386" s="9"/>
       <c r="R1386" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S1386" s="9"/>
       <c r="T1386" s="9"/>
@@ -59680,7 +59687,7 @@
       <c r="AB1388" s="9"/>
       <c r="AC1388" s="9"/>
       <c r="AD1388" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1389" spans="8:30" x14ac:dyDescent="0.3">
@@ -60039,7 +60046,7 @@
       <c r="AB1397" s="9"/>
       <c r="AC1397" s="9"/>
       <c r="AD1397" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1398" spans="8:30" x14ac:dyDescent="0.3">
@@ -60272,7 +60279,7 @@
       <c r="AB1403" s="9"/>
       <c r="AC1403" s="9"/>
       <c r="AD1403" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1404" spans="8:30" x14ac:dyDescent="0.3">
@@ -60583,7 +60590,7 @@
       <c r="AB1411" s="9"/>
       <c r="AC1411" s="9"/>
       <c r="AD1411" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1412" spans="8:30" x14ac:dyDescent="0.3">
@@ -60681,7 +60688,7 @@
         <v>105</v>
       </c>
       <c r="M1414" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="N1414" s="9" t="s">
         <v>0</v>
@@ -60883,7 +60890,7 @@
       <c r="P1419" s="9"/>
       <c r="Q1419" s="9"/>
       <c r="R1419" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S1419" s="9"/>
       <c r="T1419" s="9"/>
@@ -60937,7 +60944,7 @@
       <c r="AB1420" s="9"/>
       <c r="AC1420" s="9"/>
       <c r="AD1420" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1421" spans="8:30" x14ac:dyDescent="0.3">
@@ -61256,7 +61263,7 @@
       <c r="AB1428" s="9"/>
       <c r="AC1428" s="9"/>
       <c r="AD1428" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1429" spans="8:30" x14ac:dyDescent="0.3">
@@ -61285,7 +61292,7 @@
       <c r="P1429" s="9"/>
       <c r="Q1429" s="9"/>
       <c r="R1429" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S1429" s="9"/>
       <c r="T1429" s="9"/>
@@ -61444,7 +61451,7 @@
       <c r="P1433" s="9"/>
       <c r="Q1433" s="9"/>
       <c r="R1433" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S1433" s="9"/>
       <c r="T1433" s="9"/>
@@ -61612,7 +61619,7 @@
       <c r="AB1437" s="9"/>
       <c r="AC1437" s="9"/>
       <c r="AD1437" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1438" spans="8:30" x14ac:dyDescent="0.3">
@@ -61924,7 +61931,7 @@
       <c r="AB1445" s="9"/>
       <c r="AC1445" s="9"/>
       <c r="AD1445" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1446" spans="8:30" x14ac:dyDescent="0.3">
@@ -62384,7 +62391,7 @@
       <c r="P1457" s="9"/>
       <c r="Q1457" s="9"/>
       <c r="R1457" s="9" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="S1457" s="9"/>
       <c r="T1457" s="9"/>
@@ -62613,7 +62620,9 @@
       <c r="O1463" s="9"/>
       <c r="P1463" s="9"/>
       <c r="Q1463" s="9"/>
-      <c r="R1463" s="9"/>
+      <c r="R1463" s="9" t="s">
+        <v>1171</v>
+      </c>
       <c r="S1463" s="9"/>
       <c r="T1463" s="9"/>
       <c r="U1463" s="9"/>
@@ -62818,7 +62827,7 @@
       <c r="AB1468" s="9"/>
       <c r="AC1468" s="9"/>
       <c r="AD1468" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1469" spans="8:30" x14ac:dyDescent="0.3">
@@ -62961,7 +62970,7 @@
       <c r="P1472" s="9"/>
       <c r="Q1472" s="9"/>
       <c r="R1472" s="9" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="S1472" s="9"/>
       <c r="T1472" s="9"/>
@@ -63039,7 +63048,7 @@
       <c r="P1474" s="9"/>
       <c r="Q1474" s="9"/>
       <c r="R1474" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S1474" s="9"/>
       <c r="T1474" s="9"/>
@@ -63406,7 +63415,7 @@
       <c r="AB1483" s="9"/>
       <c r="AC1483" s="9"/>
       <c r="AD1483" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1484" spans="8:30" x14ac:dyDescent="0.3">
@@ -63435,7 +63444,7 @@
       <c r="P1484" s="9"/>
       <c r="Q1484" s="9"/>
       <c r="R1484" s="9" t="s">
-        <v>1158</v>
+        <v>1136</v>
       </c>
       <c r="S1484" s="9"/>
       <c r="T1484" s="9"/>
@@ -63589,7 +63598,7 @@
       <c r="P1488" s="9"/>
       <c r="Q1488" s="9"/>
       <c r="R1488" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S1488" s="9"/>
       <c r="T1488" s="9"/>
@@ -63769,7 +63778,7 @@
       <c r="AB1492" s="9"/>
       <c r="AC1492" s="9"/>
       <c r="AD1492" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1493" spans="8:30" x14ac:dyDescent="0.3">
@@ -64192,7 +64201,7 @@
       <c r="AB1503" s="9"/>
       <c r="AC1503" s="9"/>
       <c r="AD1503" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1504" spans="8:30" x14ac:dyDescent="0.3">
@@ -64259,7 +64268,7 @@
       <c r="P1505" s="9"/>
       <c r="Q1505" s="9"/>
       <c r="R1505" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S1505" s="9"/>
       <c r="T1505" s="9"/>
@@ -64342,7 +64351,7 @@
       <c r="P1507" s="9"/>
       <c r="Q1507" s="9"/>
       <c r="R1507" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S1507" s="9"/>
       <c r="T1507" s="9"/>
@@ -64514,7 +64523,7 @@
       <c r="AB1511" s="9"/>
       <c r="AC1511" s="9"/>
       <c r="AD1511" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1512" spans="8:30" x14ac:dyDescent="0.3">
@@ -64633,7 +64642,7 @@
       <c r="AB1514" s="9"/>
       <c r="AC1514" s="9"/>
       <c r="AD1514" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1515" spans="8:30" x14ac:dyDescent="0.3">
@@ -64936,7 +64945,9 @@
       </c>
       <c r="P1522" s="9"/>
       <c r="Q1522" s="9"/>
-      <c r="R1522" s="9"/>
+      <c r="R1522" s="9" t="s">
+        <v>1147</v>
+      </c>
       <c r="S1522" s="9"/>
       <c r="T1522" s="9"/>
       <c r="U1522" s="9"/>
@@ -65319,8 +65330,8 @@
         <f t="shared" si="53"/>
         <v>223</v>
       </c>
-      <c r="M1532" s="32" t="s">
-        <v>1174</v>
+      <c r="M1532" s="45" t="s">
+        <v>1172</v>
       </c>
       <c r="N1532" s="8"/>
       <c r="O1532" s="9" t="s">
@@ -65341,7 +65352,7 @@
       <c r="AB1532" s="9"/>
       <c r="AC1532" s="9"/>
       <c r="AD1532" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1533" spans="8:30" x14ac:dyDescent="0.3">

--- a/padam_excel/TS 1.1 Padam Input Template.xlsx
+++ b/padam_excel/TS 1.1 Padam Input Template.xlsx
@@ -3646,7 +3646,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3656,6 +3656,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3687,7 +3693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3845,6 +3851,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4129,10 +4138,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A830" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="T1462" sqref="T1462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4154,8 +4163,7 @@
     <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" style="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="1" customWidth="1"/>
     <col min="24" max="24" width="22.28515625" style="1" customWidth="1"/>
     <col min="25" max="25" width="62.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -39348,7 +39356,7 @@
       <c r="P909" s="9"/>
       <c r="Q909" s="9"/>
       <c r="R909" s="9"/>
-      <c r="S909" s="9" t="s">
+      <c r="S909" s="57" t="s">
         <v>1145</v>
       </c>
       <c r="T909" s="14" t="s">
@@ -48434,10 +48442,9 @@
         <v>1164</v>
       </c>
       <c r="T1153" s="9"/>
-      <c r="U1153" s="9" t="s">
+      <c r="V1153" s="9" t="s">
         <v>1142</v>
       </c>
-      <c r="V1153" s="9"/>
       <c r="W1153" s="9"/>
       <c r="X1153" s="9"/>
     </row>
@@ -48591,10 +48598,9 @@
         <v>1164</v>
       </c>
       <c r="T1157" s="9"/>
-      <c r="U1157" s="9" t="s">
+      <c r="V1157" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="V1157" s="9"/>
       <c r="W1157" s="9"/>
       <c r="X1157" s="9"/>
     </row>

--- a/padam_excel/TS 1.1 Padam Input Template.xlsx
+++ b/padam_excel/TS 1.1 Padam Input Template.xlsx
@@ -4139,7 +4139,7 @@
   <dimension ref="A1:Y1580"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A830" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="T1462" sqref="T1462"/>
     </sheetView>
